--- a/JobSearchAnalytics_Demo.xlsx
+++ b/JobSearchAnalytics_Demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b7e2be8640e0f68/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b7e2be8640e0f68/Desktop/Job Search Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_433FEA0F33A9C9BCC33567341E2A68C5F0885CC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD90F09A-B0C6-47D6-A28F-721B4CCED710}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_433FEA0F33A9C9BCC33567341E2A68C5F0885CC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA5B0F6-4E66-4741-B5B8-E3E7C086E05B}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="585" windowWidth="21600" windowHeight="18435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="347">
   <si>
     <t>Job Search Analytics System</t>
   </si>
@@ -1079,6 +1079,21 @@
   </si>
   <si>
     <t xml:space="preserve">    MsgBox "Skills extracted successfully.", vbInformation, "Extraction Complete"</t>
+  </si>
+  <si>
+    <t>Versioning Legend</t>
+  </si>
+  <si>
+    <t>Architecture (X.0.0)  – Structural redesign or core workflow changes</t>
+  </si>
+  <si>
+    <t>Feature (0.X.0)  – New features, dashboards, or metrics added</t>
+  </si>
+  <si>
+    <t>Refinement (0.0.X)  – Fixes, formula updates, layout or wording improvements</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1105,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,166 +1118,181 @@
       <sz val="30"/>
       <color rgb="FFC9D1D3"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF4F8A8B"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF4F8A8B"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC9D1D3"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF4F8A8B"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF1E1E1E"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF7FB77E"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC9D1D3"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC9D1D3"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF7FB77E"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFC9D1D3"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFE8C07D"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF4F8A8B"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF1E1E1E"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF4F8A8B"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1E1E1E"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF1E1E1E"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF3A4A5A"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <color rgb="FF7FB77E"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF1E1E1E"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1417,7 +1447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1549,34 +1579,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,6 +1591,30 @@
     <xf numFmtId="165" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1592,6 +1622,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1604,12 +1637,11 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1749,7 +1781,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1938,7 +1970,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2023,7 +2055,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2150,7 +2182,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2444,7 +2476,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2529,7 +2561,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2656,7 +2688,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2845,7 +2877,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2930,7 +2962,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3057,7 +3089,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3351,7 +3383,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3436,7 +3468,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3563,7 +3595,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3658,28 +3690,28 @@
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>46021</c:v>
+                  <c:v>46026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46028</c:v>
+                  <c:v>46033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46035</c:v>
+                  <c:v>46040</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46042</c:v>
+                  <c:v>46047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46049</c:v>
+                  <c:v>46054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46056</c:v>
+                  <c:v>46061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46063</c:v>
+                  <c:v>46068</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46070</c:v>
+                  <c:v>46075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3706,13 +3738,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3794,28 +3826,28 @@
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>46021</c:v>
+                  <c:v>46026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46028</c:v>
+                  <c:v>46033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46035</c:v>
+                  <c:v>46040</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46042</c:v>
+                  <c:v>46047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46049</c:v>
+                  <c:v>46054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46056</c:v>
+                  <c:v>46061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46063</c:v>
+                  <c:v>46068</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46070</c:v>
+                  <c:v>46075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3842,10 +3874,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3930,28 +3962,28 @@
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>46021</c:v>
+                  <c:v>46026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46028</c:v>
+                  <c:v>46033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46035</c:v>
+                  <c:v>46040</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46042</c:v>
+                  <c:v>46047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46049</c:v>
+                  <c:v>46054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46056</c:v>
+                  <c:v>46061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46063</c:v>
+                  <c:v>46068</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46070</c:v>
+                  <c:v>46075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4037,7 +4069,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -4121,7 +4153,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -4248,7 +4280,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4492,7 +4524,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -4704,15 +4736,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>146880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>346905</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>55650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5137,13 +5169,16 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5293,7 +5328,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5328,7 +5363,9 @@
         <v>3</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -5342,10 +5379,12 @@
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>5</v>
+        <v>346</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="72" t="s">
+        <v>343</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5362,7 +5401,9 @@
         <v>7</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="72" t="s">
+        <v>344</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5377,10 +5418,12 @@
       </c>
       <c r="C17" s="4" t="str">
         <f ca="1">TEXT(TODAY(),"MMMM DD, YYYY")</f>
-        <v>February 24, 2026</v>
+        <v>March 01, 2026</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="72" t="s">
+        <v>345</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5824,9 +5867,9 @@
   </sheetPr>
   <dimension ref="A1:M500"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:M1"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5836,7 +5879,7 @@
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
@@ -9092,7 +9135,9 @@
   </sheetPr>
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9129,21 +9174,21 @@
     </row>
     <row r="2" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
@@ -9181,24 +9226,24 @@
     </row>
     <row r="4" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
@@ -9233,34 +9278,34 @@
     </row>
     <row r="6" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="61">
+      <c r="B6" s="53">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;TODAY()-7)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53">
+        <f ca="1">COUNTIFS(Log!H:H,"&lt;"&amp;TODAY(),Log!G:G,"Applied")</f>
         <v>2</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61">
-        <f ca="1">COUNTIFS(Log!H:H,"&lt;"&amp;TODAY(),Log!G:G,"Applied")</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62">
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54">
         <f>IFERROR(COUNTIF(Log!G:G,"Interview Scheduled")/(COUNTA(Log!A:A)-1),0)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62">
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54">
         <f>IFERROR(COUNTIF(Log!G:G,"Offer")/(COUNTA(Log!A:A)-1),0)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
@@ -9270,30 +9315,30 @@
     </row>
     <row r="7" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59" t="s">
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59" t="s">
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
@@ -9353,24 +9398,24 @@
     </row>
     <row r="10" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -9380,29 +9425,29 @@
     </row>
     <row r="11" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58">
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57">
         <f ca="1">T12</f>
-        <v>12</v>
-      </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
@@ -9412,34 +9457,34 @@
     </row>
     <row r="12" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57">
         <f ca="1">T13</f>
-        <v>20</v>
-      </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="17">
         <f ca="1">MIN((COUNTIFS(Log!A:A,"&gt;="&amp;TODAY()-7)/5)*30,30)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
@@ -9447,34 +9492,34 @@
     </row>
     <row r="13" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57">
         <f>T14</f>
         <v>4.1666666666666661</v>
       </c>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="56" t="s">
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="17">
         <f ca="1">MAX(30-(COUNTIFS(Log!H:H,"&lt;"&amp;TODAY(),Log!G:G,"Applied")*10),0)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
@@ -9482,29 +9527,29 @@
     </row>
     <row r="14" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57">
         <f>T15</f>
         <v>0</v>
       </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="56" t="s">
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="17">
@@ -9517,27 +9562,27 @@
     </row>
     <row r="15" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60">
         <f ca="1">T16</f>
-        <v>36.166666666666664</v>
-      </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="17">
@@ -9570,7 +9615,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="17">
         <f ca="1">T12+T13+T14+T15</f>
-        <v>36.166666666666664</v>
+        <v>14.166666666666666</v>
       </c>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
@@ -9578,24 +9623,24 @@
     </row>
     <row r="17" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -9902,24 +9947,24 @@
     </row>
     <row r="26" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
@@ -9968,8 +10013,8 @@
         <v>2</v>
       </c>
       <c r="D28" s="18">
-        <f>IFERROR(C28/(COUNTA(Log!A:A)-1),0)</f>
-        <v>0.33333333333333331</v>
+        <f>IFERROR(C28/(COUNTA(Log!A:A)-2),0)</f>
+        <v>0.4</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -10001,8 +10046,8 @@
         <v>1</v>
       </c>
       <c r="D29" s="19">
-        <f>IFERROR(C29/(COUNTA(Log!A:A)-1),0)</f>
-        <v>0.16666666666666666</v>
+        <f>IFERROR(C29/(COUNTA(Log!A:A)-2),0)</f>
+        <v>0.2</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -10034,8 +10079,8 @@
         <v>1</v>
       </c>
       <c r="D30" s="18">
-        <f>IFERROR(C30/(COUNTA(Log!A:A)-1),0)</f>
-        <v>0.16666666666666666</v>
+        <f>IFERROR(C30/(COUNTA(Log!A:A)-2),0)</f>
+        <v>0.2</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -10067,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="19">
-        <f>IFERROR(C31/(COUNTA(Log!A:A)-1),0)</f>
+        <f>IFERROR(C31/(COUNTA(Log!A:A)-2),0)</f>
         <v>0</v>
       </c>
       <c r="E31" s="14"/>
@@ -10100,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="18">
-        <f>IFERROR(C32/(COUNTA(Log!A:A)-1),0)</f>
+        <f>IFERROR(C32/(COUNTA(Log!A:A)-2),0)</f>
         <v>0</v>
       </c>
       <c r="E32" s="14"/>
@@ -10133,8 +10178,8 @@
         <v>1</v>
       </c>
       <c r="D33" s="19">
-        <f>IFERROR(C33/(COUNTA(Log!A:A)-1),0)</f>
-        <v>0.16666666666666666</v>
+        <f>IFERROR(C33/(COUNTA(Log!A:A)-2),0)</f>
+        <v>0.2</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -10166,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="18">
-        <f>IFERROR(C34/(COUNTA(Log!A:A)-1),0)</f>
+        <f>IFERROR(C34/(COUNTA(Log!A:A)-2),0)</f>
         <v>0</v>
       </c>
       <c r="E34" s="14"/>
@@ -10195,8 +10240,8 @@
         <v>84</v>
       </c>
       <c r="C35" s="5">
-        <f>COUNTA(Log!A:A)-1</f>
-        <v>6</v>
+        <f>COUNTA(Log!A:A)-2</f>
+        <v>5</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>85</v>
@@ -10257,15 +10302,15 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
-      <c r="K37" s="53" t="s">
+      <c r="K37" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
@@ -10284,17 +10329,17 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="51" t="s">
+      <c r="K38" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="52" t="s">
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
@@ -10313,17 +10358,17 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="51" t="s">
+      <c r="K39" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="52" t="s">
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
@@ -10342,17 +10387,17 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="51" t="s">
+      <c r="K40" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="52" t="s">
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
@@ -11337,34 +11382,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B26:Q26"/>
     <mergeCell ref="K40:N40"/>
     <mergeCell ref="O40:Q40"/>
     <mergeCell ref="K37:Q37"/>
@@ -11372,6 +11389,34 @@
     <mergeCell ref="O38:Q38"/>
     <mergeCell ref="K39:N39"/>
     <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11386,7 +11431,9 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11417,14 +11464,14 @@
       <c r="F2" s="63"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -11440,14 +11487,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -11521,14 +11568,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -11676,14 +11723,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -11699,14 +11746,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -11728,11 +11775,11 @@
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <f ca="1">TODAY()-56</f>
-        <v>46021</v>
+        <v>46026</v>
       </c>
       <c r="B37" s="30">
         <f t="shared" ref="B37:B44" ca="1" si="0">A37+6</f>
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="C37" s="8">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A37,Log!A:A,"&lt;="&amp;B37)</f>
@@ -11750,11 +11797,11 @@
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <f ca="1">TODAY()-49</f>
-        <v>46028</v>
+        <v>46033</v>
       </c>
       <c r="B38" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>46034</v>
+        <v>46039</v>
       </c>
       <c r="C38" s="12">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A38,Log!A:A,"&lt;="&amp;B38)</f>
@@ -11772,11 +11819,11 @@
     <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <f ca="1">TODAY()-42</f>
-        <v>46035</v>
+        <v>46040</v>
       </c>
       <c r="B39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>46041</v>
+        <v>46046</v>
       </c>
       <c r="C39" s="8">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A39,Log!A:A,"&lt;="&amp;B39)</f>
@@ -11794,11 +11841,11 @@
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <f ca="1">TODAY()-35</f>
-        <v>46042</v>
+        <v>46047</v>
       </c>
       <c r="B40" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>46048</v>
+        <v>46053</v>
       </c>
       <c r="C40" s="12">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A40,Log!A:A,"&lt;="&amp;B40)</f>
@@ -11816,11 +11863,11 @@
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <f ca="1">TODAY()-28</f>
-        <v>46049</v>
+        <v>46054</v>
       </c>
       <c r="B41" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>46055</v>
+        <v>46060</v>
       </c>
       <c r="C41" s="8">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A41,Log!A:A,"&lt;="&amp;B41)</f>
@@ -11838,19 +11885,19 @@
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
         <f ca="1">TODAY()-21</f>
-        <v>46056</v>
+        <v>46061</v>
       </c>
       <c r="B42" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>46062</v>
+        <v>46067</v>
       </c>
       <c r="C42" s="12">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A42,Log!A:A,"&lt;="&amp;B42)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" s="12">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A42,Log!A:A,"&lt;="&amp;B42,Log!G:G,"Interview Scheduled")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="12">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A42,Log!A:A,"&lt;="&amp;B42,Log!G:G,"Offer")</f>
@@ -11860,19 +11907,19 @@
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <f ca="1">TODAY()-14</f>
-        <v>46063</v>
+        <v>46068</v>
       </c>
       <c r="B43" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>46069</v>
+        <v>46074</v>
       </c>
       <c r="C43" s="8">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A43,Log!A:A,"&lt;="&amp;B43)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="8">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A43,Log!A:A,"&lt;="&amp;B43,Log!G:G,"Interview Scheduled")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="8">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A43,Log!A:A,"&lt;="&amp;B43,Log!G:G,"Offer")</f>
@@ -11882,15 +11929,15 @@
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
         <f ca="1">TODAY()-7</f>
-        <v>46070</v>
+        <v>46075</v>
       </c>
       <c r="B44" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>46076</v>
+        <v>46081</v>
       </c>
       <c r="C44" s="12">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A44,Log!A:A,"&lt;="&amp;B44)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" s="12">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A44,Log!A:A,"&lt;="&amp;B44,Log!G:G,"Interview Scheduled")</f>
@@ -11924,7 +11971,9 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12311,7 +12360,9 @@
   </sheetPr>
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12343,51 +12394,51 @@
       <c r="K1" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="E6" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="H6" s="53" t="s">
+      <c r="F6" s="52"/>
+      <c r="H6" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -12834,19 +12885,19 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
     </row>
     <row r="31" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -13247,13 +13298,13 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
@@ -13274,25 +13325,25 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="68">
+      <c r="B48" s="68"/>
+      <c r="C48" s="69">
         <f>IFERROR((TotalAchievedWeight/TotalPossibleWeight)*100,0)</f>
         <v>78.260869565217391</v>
       </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="s">
@@ -13394,13 +13445,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
@@ -13503,18 +13554,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A50:E50"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A50:E50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13536,8 +13587,8 @@
   </sheetPr>
   <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:D81"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13556,12 +13607,12 @@
       <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
@@ -13596,12 +13647,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
@@ -13660,12 +13711,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
@@ -13740,12 +13791,12 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
@@ -13753,7 +13804,7 @@
       </c>
       <c r="B29" s="45">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;TODAY()-7)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13762,7 +13813,7 @@
       </c>
       <c r="B30" s="45">
         <f ca="1">COUNTIFS(Log!H:H,"&lt;"&amp;TODAY(),Log!G:G,"Applied")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13784,12 +13835,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
@@ -13797,7 +13848,7 @@
       </c>
       <c r="B35" s="45">
         <f ca="1">MIN((COUNTIFS(Log!A:A,"&gt;="&amp;TODAY()-7)/5)*30,30)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13806,7 +13857,7 @@
       </c>
       <c r="B36" s="45">
         <f ca="1">MAX(30-(COUNTIFS(Log!H:H,"&lt;"&amp;TODAY(),Log!G:G,"Applied")*10),0)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13833,16 +13884,16 @@
       </c>
       <c r="B39" s="45">
         <f ca="1">ScoreA+ScoreB+ScoreC+ScoreD</f>
-        <v>36.166666666666664</v>
+        <v>14.166666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
@@ -13894,12 +13945,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
@@ -13942,12 +13993,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
     </row>
     <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
@@ -13977,12 +14028,12 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
     </row>
     <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
@@ -14009,12 +14060,12 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
     </row>
     <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="s">
@@ -14073,12 +14124,12 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
     </row>
     <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
@@ -14109,12 +14160,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
     </row>
     <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="71" t="s">
@@ -14910,105 +14961,6 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A166:D166"/>
     <mergeCell ref="A176:D176"/>
     <mergeCell ref="A177:D177"/>
     <mergeCell ref="A178:D178"/>
@@ -15023,6 +14975,105 @@
     <mergeCell ref="A173:D173"/>
     <mergeCell ref="A174:D174"/>
     <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A56:D56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/JobSearchAnalytics_Demo.xlsx
+++ b/JobSearchAnalytics_Demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b7e2be8640e0f68/Desktop/Job Search Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_433FEA0F33A9C9BCC33567341E2A68C5F0885CC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA5B0F6-4E66-4741-B5B8-E3E7C086E05B}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="11_433FEA0F33A9C9BCC33567341E2A68C5F0885CC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACEBAA2A-A23C-47B6-ADEC-07724A5302BD}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="585" windowWidth="21600" windowHeight="18435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="538">
   <si>
     <t>Job Search Analytics System</t>
   </si>
@@ -1000,24 +1000,15 @@
     <t>' ExtractSkills — reads JobDescriptionText, scans vs</t>
   </si>
   <si>
-    <t>' SkillsDictionary, populates JobPostingSkills (H9:J500)</t>
-  </si>
-  <si>
     <t>Sub ExtractSkills()</t>
   </si>
   <si>
-    <t xml:space="preserve">    Dim dict As Object</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dim skill As Variant</t>
   </si>
   <si>
     <t xml:space="preserve">    Dim txt As String</t>
   </si>
   <si>
-    <t xml:space="preserve">    Dim lastRow As Long</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dim i As Long</t>
   </si>
   <si>
@@ -1030,57 +1021,27 @@
     <t xml:space="preserve">    txt = ws.Range("JobDescriptionText").Value</t>
   </si>
   <si>
-    <t xml:space="preserve">    Set dict = CreateObject("Scripting.Dictionary")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    lastRow = ws.Cells(ws.Rows.Count, "A").End(xlUp).Row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    For i = 8 To lastRow</t>
-  </si>
-  <si>
     <t xml:space="preserve">        If ws.Cells(i, 1).Value &lt;&gt; "" Then</t>
   </si>
   <si>
-    <t xml:space="preserve">            dict(ws.Cells(i, 1).Value) = ws.Cells(i, 3).Value</t>
-  </si>
-  <si>
     <t xml:space="preserve">        End If</t>
   </si>
   <si>
     <t xml:space="preserve">    Next i</t>
   </si>
   <si>
-    <t xml:space="preserve">    ws.Range("H9:J500").ClearContents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    rowOut = 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    For Each skill In dict.Keys</t>
-  </si>
-  <si>
     <t xml:space="preserve">        If InStr(1, txt, skill, vbTextCompare) &gt; 0 Then</t>
   </si>
   <si>
     <t xml:space="preserve">            ws.Cells(rowOut, 8).Value = skill</t>
   </si>
   <si>
-    <t xml:space="preserve">            ws.Cells(rowOut, 9).Value = ""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ws.Cells(rowOut, 10).Value = dict(skill)</t>
-  </si>
-  <si>
     <t xml:space="preserve">            rowOut = rowOut + 1</t>
   </si>
   <si>
     <t xml:space="preserve">    Next skill</t>
   </si>
   <si>
-    <t xml:space="preserve">    MsgBox "Skills extracted successfully.", vbInformation, "Extraction Complete"</t>
-  </si>
-  <si>
     <t>Versioning Legend</t>
   </si>
   <si>
@@ -1094,6 +1055,618 @@
   </si>
   <si>
     <t>2.0.1</t>
+  </si>
+  <si>
+    <t>' SkillsDictionary (rows 8-27), populates JobPostingSkills</t>
+  </si>
+  <si>
+    <t>' (H8:J29), rebuilds SkillsGap table (rows 32-43), and</t>
+  </si>
+  <si>
+    <t>' writes correct panel formulas for Top 5 Gaps and Strengths</t>
+  </si>
+  <si>
+    <t>' VERSION: 2026.9 — SUMPRODUCT ranking, all headers restored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim dictWeight As Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim dictCat As Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim gapRow As Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim cleanRow As Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim panelRow As Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set dictWeight = CreateObject("Scripting.Dictionary")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set dictCat = CreateObject("Scripting.Dictionary")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Read SkillsDictionary — pinned to rows 8-27 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For i = 8 To 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            dictWeight(ws.Cells(i, 1).Value) = ws.Cells(i, 3).Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            dictCat(ws.Cells(i, 1).Value) = ws.Cells(i, 2).Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Clear JobPostingSkills — capped at row 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For i = 8 To 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(i, 8).Value = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(i, 9).Value = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(i, 10).Value = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Clear SkillsGap data rows — capped at row 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For i = 32 To 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        On Error Resume Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(i, 1).Value = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(i, 2).Value = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(i, 3).Value = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(i, 4).ClearContents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(i, 5).ClearContents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(i, 6).ClearContents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(i, 7).ClearContents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(i, 8).ClearContents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        On Error GoTo 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Write matched skills to JobPostingSkills and SkillsGap simultaneously</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    rowOut = 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gapRow = 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For Each skill In dictWeight.Keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ' JobPostingSkills (H:J)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ws.Cells(rowOut, 9).Value = dictCat(skill)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ws.Cells(rowOut, 10).Value = dictWeight(skill)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ' SkillsGap table (A:H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ws.Cells(gapRow, 1).Value = skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ws.Cells(gapRow, 2).Value = dictCat(skill)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ws.Cells(gapRow, 3).Value = dictWeight(skill)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ' Is In Resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ws.Cells(gapRow, 4).Formula = _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "=IF(COUNTIF(ResumeSkills[Skill],A" &amp; gapRow &amp; ")&gt;0,1,0)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ' Weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ws.Cells(gapRow, 5).Formula = _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "=C" &amp; gapRow &amp; "*D" &amp; gapRow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ' Weighted Gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ws.Cells(gapRow, 6).Formula = _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "=IF(D" &amp; gapRow &amp; "=1,0,C" &amp; gapRow &amp; ")"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ' Gap Rank — SUMPRODUCT tiebreaker, excludes empty rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ws.Cells(gapRow, 7).Formula = _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "=SUMPRODUCT((SkillsGap[Weighted Gap]&gt;F" &amp; gapRow &amp; ")" &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "*(SkillsGap[Skill]&lt;&gt;"""")*1)" &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "+SUMPRODUCT((SkillsGap[Weighted Gap]=F" &amp; gapRow &amp; ")" &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "*(SkillsGap[Skill]&lt;&gt;"""")" &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "*(SkillsGap[Skill]&lt;A" &amp; gapRow &amp; "))+1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ' Strength Rank — SUMPRODUCT tiebreaker, excludes empty rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ws.Cells(gapRow, 8).Formula = _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "=SUMPRODUCT((SkillsGap[Weighted Score]&gt;E" &amp; gapRow &amp; ")" &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "+SUMPRODUCT((SkillsGap[Weighted Score]=E" &amp; gapRow &amp; ")" &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            gapRow = gapRow + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Clean up leftover formula rows below matched skills — capped at row 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For cleanRow = gapRow To 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(cleanRow, 4).ClearContents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(cleanRow, 5).ClearContents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(cleanRow, 6).ClearContents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(cleanRow, 7).ClearContents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(cleanRow, 8).ClearContents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Next cleanRow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Write Top 5 Skills Gaps panel formulas (rows 52-56, cols A-D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For panelRow = 52 To 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(panelRow, 1).Value = panelRow - 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(panelRow, 2).Formula = _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "=IFERROR(INDEX(SkillsGap[Skill],MATCH(A" &amp; panelRow &amp; ",SkillsGap[Gap Rank],0)),"""")"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(panelRow, 3).Formula = _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "=IFERROR(INDEX(SkillsGap[Weight],MATCH(A" &amp; panelRow &amp; ",SkillsGap[Gap Rank],0)),"""")"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(panelRow, 4).Formula = _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "=IFERROR(INDEX(SkillsGap[Category],MATCH(A" &amp; panelRow &amp; ",SkillsGap[Gap Rank],0)),"""")"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Next panelRow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Write Top 5 Resume Strengths panel formulas (rows 60-64, cols A-D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For panelRow = 60 To 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ws.Cells(panelRow, 1).Value = panelRow - 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "=IFERROR(INDEX(SkillsGap[Skill],MATCH(A" &amp; panelRow &amp; ",SkillsGap[Strength Rank],0)),"""")"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "=IFERROR(INDEX(SkillsGap[Weight],MATCH(A" &amp; panelRow &amp; ",SkillsGap[Strength Rank],0)),"""")"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "=IFERROR(INDEX(SkillsGap[Category],MATCH(A" &amp; panelRow &amp; ",SkillsGap[Strength Rank],0)),"""")"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Restore section header labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(45, 1).Value = "JOB FIT SCORE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(46, 1).Value = "Total Possible Weight:"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(47, 1).Value = "Total Achieved Weight:"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(48, 1).Value = "JOB FIT SCORE (0-100):"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(50, 1).Value = "TOP 5 SKILLS GAPS  (Most Important Missing Skills)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(58, 1).Value = "TOP 5 RESUME STRENGTHS  (Highest Weighted Matching Skills)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Restore Job Fit Score formulas in column C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(46, 3).Formula = "=SUM(JobPostingSkills[Weight])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(47, 3).Formula = "=SUM(SkillsGap[Weighted Score])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(48, 3).Formula = _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "=IFERROR((SUM(SkillsGap[Weighted Score])/SUM(JobPostingSkills[Weight]))*100,0)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Restore panel table headers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(51, 1).Value = "Rank"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(51, 2).Value = "Skill"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(51, 3).Value = "Weight"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(51, 4).Value = "Category"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(59, 1).Value = "Rank"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(59, 2).Value = "Skill"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(59, 3).Value = "Weight"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ws.Cells(59, 4).Value = "Category"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "Skills extracted, SkillsGap rebuilt, and panels updated successfully.", _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        vbInformation, "Extraction Complete"</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>Structural redesign and architectural baseline established</t>
+  </si>
+  <si>
+    <t>Formula refinements and dashboard accuracy improvements</t>
+  </si>
+  <si>
+    <t>Senior Operations Analyst</t>
+  </si>
+  <si>
+    <t>Data Strategy Manager</t>
+  </si>
+  <si>
+    <t>Senior BI Consultant</t>
+  </si>
+  <si>
+    <t>Revenue Strategy Lead</t>
+  </si>
+  <si>
+    <t>Zenith Analytics</t>
+  </si>
+  <si>
+    <t>Recruiter Outreach</t>
+  </si>
+  <si>
+    <t>https://zenithanalytics.com/jobs</t>
+  </si>
+  <si>
+    <t>Recruiter inbound</t>
+  </si>
+  <si>
+    <t>ApexCore Systems</t>
+  </si>
+  <si>
+    <t>Revenue Operations Lead</t>
+  </si>
+  <si>
+    <t>https://apexcore.com/careers</t>
+  </si>
+  <si>
+    <t>Advanced to 2nd round</t>
+  </si>
+  <si>
+    <t>SummitBridge Data</t>
+  </si>
+  <si>
+    <t>BI Director</t>
+  </si>
+  <si>
+    <t>https://linkedin.com/summitbridge</t>
+  </si>
+  <si>
+    <t>NorthPeak Consulting</t>
+  </si>
+  <si>
+    <t>Strategy &amp; Analytics Lead</t>
+  </si>
+  <si>
+    <t>https://northpeak.com/jobs</t>
+  </si>
+  <si>
+    <t>IronGate Holdings</t>
+  </si>
+  <si>
+    <t>Business Ops Manager</t>
+  </si>
+  <si>
+    <t>https://irongate.com/careers</t>
+  </si>
+  <si>
+    <t>Recruiter fast-track</t>
+  </si>
+  <si>
+    <t>2nd round panel</t>
+  </si>
+  <si>
+    <t>LuminaEdge</t>
+  </si>
+  <si>
+    <t>https://linkedin.com/luminaedge</t>
+  </si>
+  <si>
+    <t>Final round invite</t>
+  </si>
+  <si>
+    <t>Polaris Strategic</t>
+  </si>
+  <si>
+    <t>Revenue Intelligence Director</t>
+  </si>
+  <si>
+    <t>https://polarisstrategic.com</t>
+  </si>
+  <si>
+    <t>Vertex Horizon</t>
+  </si>
+  <si>
+    <t>https://vertexhorizon.com</t>
+  </si>
+  <si>
+    <t>Crestline Analytics</t>
+  </si>
+  <si>
+    <t>Senior BI Manager</t>
+  </si>
+  <si>
+    <t>https://crestlineanalytics.com/jobs</t>
+  </si>
+  <si>
+    <t>Final round complete</t>
+  </si>
+  <si>
+    <t>Declined</t>
+  </si>
+  <si>
+    <t>Offer below compensation target</t>
+  </si>
+  <si>
+    <t>NorthRiver Strategy</t>
+  </si>
+  <si>
+    <t>Operations Analytics Director</t>
+  </si>
+  <si>
+    <t>Decision Pending</t>
+  </si>
+  <si>
+    <t>BlueArc Holdings</t>
+  </si>
+  <si>
+    <t>IronPeak Advisory</t>
+  </si>
+  <si>
+    <t>Data &amp; Ops Strategy Lead</t>
+  </si>
+  <si>
+    <t>Awaiting executive sign-off</t>
+  </si>
+  <si>
+    <t>Site Career Portal</t>
+  </si>
+  <si>
+    <t>Applied directly</t>
+  </si>
+  <si>
+    <t>2nd round confirmed</t>
+  </si>
+  <si>
+    <t>Final round scheduled</t>
+  </si>
+  <si>
+    <t>Applied via company portal</t>
+  </si>
+  <si>
+    <t>https://linkedin.com/northriver</t>
+  </si>
+  <si>
+    <t>Hiring committee extended review</t>
+  </si>
+  <si>
+    <t>https://bluearcholdings.com</t>
+  </si>
+  <si>
+    <t>Timeline accelerated</t>
+  </si>
+  <si>
+    <t>Accelerated final round due to competing offer</t>
+  </si>
+  <si>
+    <t>https://ironpeakadvisory.com</t>
+  </si>
+  <si>
+    <t>Final round overlapped</t>
+  </si>
+  <si>
+    <t>Offer negotiation</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Offer accepted. Start Date: 03/21/2026</t>
+  </si>
+  <si>
+    <t>Counter-offer submitted</t>
+  </si>
+  <si>
+    <t>Accepted (Counter-Offer)</t>
+  </si>
+  <si>
+    <t>Compensation increased 10%</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>Withdrew after acceptance</t>
+  </si>
+  <si>
+    <t>Exited process due to accepted offer</t>
+  </si>
+  <si>
+    <t>Process exited voluntarily</t>
+  </si>
+  <si>
+    <t>ApexData Group</t>
+  </si>
+  <si>
+    <t>https://apexdata.com/jobs</t>
+  </si>
+  <si>
+    <t>Recruiter inbound DM</t>
+  </si>
+  <si>
+    <t>Fast-track intro</t>
+  </si>
+  <si>
+    <t>SummitEdge Analytics</t>
+  </si>
+  <si>
+    <t>Strategy Lead</t>
+  </si>
+  <si>
+    <t>https://summitedge.com</t>
+  </si>
+  <si>
+    <t>Strong alignment</t>
+  </si>
+  <si>
+    <t>NovaBridge Systems</t>
+  </si>
+  <si>
+    <t>Revenue Ops Director</t>
+  </si>
+  <si>
+    <t>https://novabridge.com</t>
+  </si>
+  <si>
+    <t>Fast-track</t>
+  </si>
+  <si>
+    <t>Executive panel</t>
+  </si>
+  <si>
+    <t>Meridian Analytics</t>
+  </si>
+  <si>
+    <t>BI Manager</t>
+  </si>
+  <si>
+    <t>https://meridiananalytics.com</t>
+  </si>
+  <si>
+    <t>Applied via portal</t>
+  </si>
+  <si>
+    <t>Inbound after application</t>
+  </si>
+  <si>
+    <t>Altitude Strategy</t>
+  </si>
+  <si>
+    <t>Data Ops Lead</t>
+  </si>
+  <si>
+    <t>https://altitudestrategy.com</t>
+  </si>
+  <si>
+    <t>Executive search contact</t>
+  </si>
+  <si>
+    <t>Strong growth opportunity</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +2020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1567,6 +2140,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1637,11 +2218,6 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1913,13 +2489,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -2302,10 +2878,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2314,7 +2890,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,7 +2998,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2431,7 +3007,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2820,13 +3396,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -3209,10 +3785,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3221,7 +3797,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,7 +3905,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3338,7 +3914,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3741,10 +4317,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3877,10 +4453,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4013,10 +4589,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4885,9 +5461,13 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="JobLogTable" displayName="JobLogTable" ref="A2:M7" totalsRowShown="0">
-  <autoFilter ref="A2:M7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="JobLogTable" displayName="JobLogTable" ref="A2:M26" totalsRowShown="0">
+  <autoFilter ref="A2:M26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date Applied"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Employer"/>
@@ -5169,7 +5749,7 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -5287,11 +5867,11 @@
     </row>
     <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -5315,11 +5895,11 @@
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5363,8 +5943,8 @@
         <v>3</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="73" t="s">
-        <v>342</v>
+      <c r="E14" s="48" t="s">
+        <v>329</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -5379,11 +5959,11 @@
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="72" t="s">
-        <v>343</v>
+      <c r="E15" s="47" t="s">
+        <v>330</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -5401,8 +5981,8 @@
         <v>7</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="72" t="s">
-        <v>344</v>
+      <c r="E16" s="47" t="s">
+        <v>331</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5421,8 +6001,8 @@
         <v>March 01, 2026</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="72" t="s">
-        <v>345</v>
+      <c r="E17" s="47" t="s">
+        <v>332</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5485,11 +6065,11 @@
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -5865,11 +6445,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF4F8A8B"/>
   </sheetPr>
-  <dimension ref="A1:M500"/>
+  <dimension ref="A1:M499"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,27 +6464,27 @@
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="11" max="11" width="38.28515625" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5983,7 +6563,7 @@
         <v>31</v>
       </c>
       <c r="M3" s="9">
-        <f t="shared" ref="M3:M66" si="0">IF(J3="","",J3-A3)</f>
+        <f t="shared" ref="M3:M65" si="0">IF(J3="","",J3-A3)</f>
         <v>10</v>
       </c>
     </row>
@@ -6013,7 +6593,7 @@
         <v>46070</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
         <v>38</v>
@@ -6085,7 +6665,7 @@
         <v>46075</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="11" t="s">
         <v>51</v>
       </c>
@@ -6134,150 +6714,789 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A8" s="6">
+        <v>46071</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6">
+        <v>46073</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="J8" s="6">
+        <v>46073</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M8" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A9" s="6">
+        <v>46071</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="6">
+        <v>46073</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="J9" s="6">
+        <v>46074</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="M9" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A10" s="6">
+        <v>46072</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="6">
+        <v>46075</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6">
+        <v>46075</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="M10" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A11" s="6">
+        <v>46072</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="6">
+        <v>46075</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="J11" s="6">
+        <v>46077</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="M11" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A12" s="6">
+        <v>46073</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6">
+        <v>46075</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="J12" s="6">
+        <v>46076</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M12" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A13" s="6">
+        <v>46073</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="6">
+        <v>46076</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="J13" s="6">
+        <v>46078</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M13" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A14" s="6">
+        <v>46074</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="6">
+        <v>46076</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="J14" s="6">
+        <v>46077</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="M14" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A15" s="6">
+        <v>46074</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="6">
+        <v>46076</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="J15" s="6">
+        <v>46076</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M25" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>46075</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="6">
+        <v>46077</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6">
+        <v>46078</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="M16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>46075</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="6">
+        <v>46078</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="J17" s="6">
+        <v>46079</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="M17" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>46081</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="6">
+        <v>46083</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="J18" s="6">
+        <v>46079</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M18" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>46081</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="6">
+        <v>46083</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="J19" s="6">
+        <v>46080</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="M19" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>46082</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="H20" s="6">
+        <v>46085</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J20" s="6">
+        <v>46078</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="M20" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>46083</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="H21" s="6">
+        <v>46086</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="J21" s="6">
+        <v>46079</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="M21" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>46083</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="6">
+        <v>46085</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="J22" s="6">
+        <v>46085</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="M22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>46084</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="6">
+        <v>46086</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="J23" s="6">
+        <v>46086</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="M23" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>46085</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="6">
+        <v>46087</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="J24" s="6">
+        <v>46087</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="M24" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>46086</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="6">
+        <v>46088</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="J25" s="6">
+        <v>46088</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="M25" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>46087</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="6">
+        <v>46089</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="J26" s="6">
+        <v>46089</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="M26" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M27" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M28" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M29" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M30" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M31" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M32" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6483,13 +7702,13 @@
     </row>
     <row r="66" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M66" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M66:M129" si="1">IF(J66="","",J66-A66)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M67" s="13" t="str">
-        <f t="shared" ref="M67:M130" si="1">IF(J67="","",J67-A67)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6867,13 +8086,13 @@
     </row>
     <row r="130" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M130" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M130:M193" si="2">IF(J130="","",J130-A130)</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M131" s="13" t="str">
-        <f t="shared" ref="M131:M194" si="2">IF(J131="","",J131-A131)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7251,13 +8470,13 @@
     </row>
     <row r="194" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M194" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M194:M257" si="3">IF(J194="","",J194-A194)</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M195" s="13" t="str">
-        <f t="shared" ref="M195:M258" si="3">IF(J195="","",J195-A195)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7635,13 +8854,13 @@
     </row>
     <row r="258" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M258" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M258:M321" si="4">IF(J258="","",J258-A258)</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M259" s="13" t="str">
-        <f t="shared" ref="M259:M322" si="4">IF(J259="","",J259-A259)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8019,13 +9238,13 @@
     </row>
     <row r="322" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M322" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M322:M385" si="5">IF(J322="","",J322-A322)</f>
         <v/>
       </c>
     </row>
     <row r="323" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M323" s="13" t="str">
-        <f t="shared" ref="M323:M386" si="5">IF(J323="","",J323-A323)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8403,13 +9622,13 @@
     </row>
     <row r="386" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M386" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M386:M449" si="6">IF(J386="","",J386-A386)</f>
         <v/>
       </c>
     </row>
     <row r="387" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M387" s="13" t="str">
-        <f t="shared" ref="M387:M450" si="6">IF(J387="","",J387-A387)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8787,13 +10006,13 @@
     </row>
     <row r="450" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M450" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M450:M499" si="7">IF(J450="","",J450-A450)</f>
         <v/>
       </c>
     </row>
     <row r="451" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M451" s="13" t="str">
-        <f t="shared" ref="M451:M500" si="7">IF(J451="","",J451-A451)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9081,12 +10300,6 @@
     </row>
     <row r="499" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M499" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="500" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M500" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -9095,7 +10308,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:M1000">
+  <conditionalFormatting sqref="A3:M999">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND($H3&lt;TODAY(),$H3&lt;&gt;"",$G3="Applied")</formula>
     </cfRule>
@@ -9107,15 +10320,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Select a valid status." sqref="G3:G1000" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Select a valid status." sqref="G3:G999" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Applied,In Review,Interview Scheduled,Interviewed,Offer,Rejected,Closed / No Response"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F3:F1000" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F3:F999" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Master,BI-Focused,PM-Focused,Ops-Focused,Tailored Version"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="K3:K1000" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="K3:K999" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Offer Accepted,Offer Declined,Rejected,No Response,Withdrew"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9135,7 +10348,7 @@
   </sheetPr>
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -9174,21 +10387,21 @@
     </row>
     <row r="2" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
@@ -9226,24 +10439,24 @@
     </row>
     <row r="4" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
@@ -9278,34 +10491,34 @@
     </row>
     <row r="6" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="53">
+      <c r="B6" s="57">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;TODAY()-7)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53">
+        <v>11</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57">
         <f ca="1">COUNTIFS(Log!H:H,"&lt;"&amp;TODAY(),Log!G:G,"Applied")</f>
         <v>2</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54">
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58">
         <f>IFERROR(COUNTIF(Log!G:G,"Interview Scheduled")/(COUNTA(Log!A:A)-1),0)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58">
         <f>IFERROR(COUNTIF(Log!G:G,"Offer")/(COUNTA(Log!A:A)-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
+        <v>0.16</v>
+      </c>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
@@ -9315,30 +10528,30 @@
     </row>
     <row r="7" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55" t="s">
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
@@ -9398,24 +10611,24 @@
     </row>
     <row r="10" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -9425,29 +10638,29 @@
     </row>
     <row r="11" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57">
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61">
         <f ca="1">T12</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
@@ -9457,34 +10670,34 @@
     </row>
     <row r="12" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61">
         <f ca="1">T13</f>
         <v>10</v>
       </c>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="58" t="s">
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="17">
         <f ca="1">MIN((COUNTIFS(Log!A:A,"&gt;="&amp;TODAY()-7)/5)*30,30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
@@ -9492,29 +10705,29 @@
     </row>
     <row r="13" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61">
         <f>T14</f>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58" t="s">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="17">
@@ -9527,34 +10740,34 @@
     </row>
     <row r="14" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57">
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61">
         <f>T15</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="58" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="17">
         <f>IFERROR(MIN((COUNTIF(Log!G:G,"Interview Scheduled")/(COUNTA(Log!A:A)-1))*25,25),0)</f>
-        <v>4.1666666666666661</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
@@ -9562,32 +10775,32 @@
     </row>
     <row r="15" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64">
         <f ca="1">T16</f>
-        <v>14.166666666666666</v>
-      </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
+        <v>56.4</v>
+      </c>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="17">
         <f>IFERROR(MIN((COUNTIF(Log!G:G,"Offer")/(COUNTA(Log!A:A)-1))*15,15),0)</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
@@ -9615,7 +10828,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="17">
         <f ca="1">T12+T13+T14+T15</f>
-        <v>14.166666666666666</v>
+        <v>56.4</v>
       </c>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
@@ -9623,24 +10836,24 @@
     </row>
     <row r="17" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -9692,11 +10905,11 @@
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(Log!F:F,"Master")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="8">
         <f>COUNTIFS(Log!F:F,"Master",Log!G:G,"Interview Scheduled")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="8">
         <f>COUNTIFS(Log!F:F,"Master",Log!G:G,"Offer")</f>
@@ -9704,7 +10917,7 @@
       </c>
       <c r="F19" s="18">
         <f>IFERROR(D19/C19,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="18">
         <f>IFERROR(E19/C19,0)</f>
@@ -9734,23 +10947,23 @@
       </c>
       <c r="C20" s="12">
         <f>COUNTIF(Log!F:F,"BI-Focused")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" s="12">
         <f>COUNTIFS(Log!F:F,"BI-Focused",Log!G:G,"Interview Scheduled")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" s="12">
         <f>COUNTIFS(Log!F:F,"BI-Focused",Log!G:G,"Offer")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="19">
         <f>IFERROR(D20/C20,0)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G20" s="19">
         <f>IFERROR(E20/C20,0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -9860,23 +11073,23 @@
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(Log!F:F,"Tailored Version")</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D23" s="8">
         <f>COUNTIFS(Log!F:F,"Tailored Version",Log!G:G,"Interview Scheduled")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E23" s="8">
         <f>COUNTIFS(Log!F:F,"Tailored Version",Log!G:G,"Offer")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="18">
         <f>IFERROR(D23/C23,0)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G23" s="18">
         <f>IFERROR(E23/C23,0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -9947,24 +11160,24 @@
     </row>
     <row r="26" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
@@ -10014,7 +11227,7 @@
       </c>
       <c r="D28" s="18">
         <f>IFERROR(C28/(COUNTA(Log!A:A)-2),0)</f>
-        <v>0.4</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -10047,7 +11260,7 @@
       </c>
       <c r="D29" s="19">
         <f>IFERROR(C29/(COUNTA(Log!A:A)-2),0)</f>
-        <v>0.2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -10076,11 +11289,11 @@
       </c>
       <c r="C30" s="8">
         <f>COUNTIF(Log!G:G,"Interview Scheduled")</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D30" s="18">
         <f>IFERROR(C30/(COUNTA(Log!A:A)-2),0)</f>
-        <v>0.2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -10142,11 +11355,11 @@
       </c>
       <c r="C32" s="8">
         <f>COUNTIF(Log!G:G,"Offer")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="18">
         <f>IFERROR(C32/(COUNTA(Log!A:A)-2),0)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -10179,7 +11392,7 @@
       </c>
       <c r="D33" s="19">
         <f>IFERROR(C33/(COUNTA(Log!A:A)-2),0)</f>
-        <v>0.2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -10241,7 +11454,7 @@
       </c>
       <c r="C35" s="5">
         <f>COUNTA(Log!A:A)-2</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>85</v>
@@ -10302,15 +11515,15 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
-      <c r="K37" s="52" t="s">
+      <c r="K37" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
@@ -10329,17 +11542,17 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="61" t="s">
+      <c r="K38" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="62" t="s">
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
@@ -10358,17 +11571,17 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="61" t="s">
+      <c r="K39" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="62" t="s">
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
@@ -10387,17 +11600,17 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="61" t="s">
+      <c r="K40" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="62" t="s">
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
@@ -11444,34 +12657,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -11487,14 +12700,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -11528,7 +12741,7 @@
       </c>
       <c r="B13" s="23">
         <f>COUNTIF(Log!G:G,"Interview Scheduled")</f>
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11546,7 +12759,7 @@
       </c>
       <c r="B15" s="23">
         <f>COUNTIF(Log!G:G,"Offer")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11568,14 +12781,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -11603,11 +12816,11 @@
       </c>
       <c r="B22" s="23">
         <f>COUNTIF(Log!F:F,"Master")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="23">
         <f>COUNTIFS(Log!F:F,"Master",Log!G:G,"Interview Scheduled")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="23">
         <f>COUNTIFS(Log!F:F,"Master",Log!G:G,"Offer")</f>
@@ -11615,7 +12828,7 @@
       </c>
       <c r="E22" s="27">
         <f>IFERROR(C22/B22,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="27">
         <f>IFERROR(D22/B22,0)</f>
@@ -11628,23 +12841,23 @@
       </c>
       <c r="B23" s="25">
         <f>COUNTIF(Log!F:F,"BI-Focused")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23" s="25">
         <f>COUNTIFS(Log!F:F,"BI-Focused",Log!G:G,"Interview Scheduled")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" s="25">
         <f>COUNTIFS(Log!F:F,"BI-Focused",Log!G:G,"Offer")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29">
         <f>IFERROR(C23/B23,0)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F23" s="29">
         <f>IFERROR(D23/B23,0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11703,34 +12916,34 @@
       </c>
       <c r="B26" s="23">
         <f>COUNTIF(Log!F:F,"Tailored Version")</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C26" s="23">
         <f>COUNTIFS(Log!F:F,"Tailored Version",Log!G:G,"Interview Scheduled")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D26" s="23">
         <f>COUNTIFS(Log!F:F,"Tailored Version",Log!G:G,"Offer")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="27">
         <f>IFERROR(C26/B26,0)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F26" s="27">
         <f>IFERROR(D26/B26,0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -11746,14 +12959,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -11915,15 +13128,15 @@
       </c>
       <c r="C43" s="8">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A43,Log!A:A,"&lt;="&amp;B43)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D43" s="8">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A43,Log!A:A,"&lt;="&amp;B43,Log!G:G,"Interview Scheduled")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E43" s="8">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A43,Log!A:A,"&lt;="&amp;B43,Log!G:G,"Offer")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11937,15 +13150,15 @@
       </c>
       <c r="C44" s="12">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A44,Log!A:A,"&lt;="&amp;B44)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D44" s="12">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A44,Log!A:A,"&lt;="&amp;B44,Log!G:G,"Interview Scheduled")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" s="12">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;A44,Log!A:A,"&lt;="&amp;B44,Log!G:G,"Offer")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11984,20 +13197,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
     </row>
     <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -12334,12 +13547,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12379,66 +13592,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="E6" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="H6" s="52" t="s">
+      <c r="F6" s="56"/>
+      <c r="H6" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -12885,19 +14098,19 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -13298,13 +14511,13 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
@@ -13325,25 +14538,25 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="68" t="s">
+      <c r="A48" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="69">
+      <c r="B48" s="72"/>
+      <c r="C48" s="73">
         <f>IFERROR((TotalAchievedWeight/TotalPossibleWeight)*100,0)</f>
         <v>78.260869565217391</v>
       </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="s">
@@ -13445,13 +14658,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67" t="s">
+      <c r="A58" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
@@ -13585,34 +14798,35 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFC9D1D3"/>
   </sheetPr>
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
@@ -13647,12 +14861,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
@@ -13711,12 +14925,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
@@ -13791,12 +15005,12 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
@@ -13804,7 +15018,7 @@
       </c>
       <c r="B29" s="45">
         <f ca="1">COUNTIFS(Log!A:A,"&gt;="&amp;TODAY()-7)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13822,7 +15036,7 @@
       </c>
       <c r="B31" s="45">
         <f>IFERROR(COUNTIF(Log!G:G,"Interview Scheduled")/(COUNTA(Log!A:A)-1),0)</f>
-        <v>0.16666666666666666</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13831,16 +15045,16 @@
       </c>
       <c r="B32" s="45">
         <f>IFERROR(COUNTIF(Log!G:G,"Offer")/(COUNTA(Log!A:A)-1),0)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
@@ -13848,7 +15062,7 @@
       </c>
       <c r="B35" s="45">
         <f ca="1">MIN((COUNTIFS(Log!A:A,"&gt;="&amp;TODAY()-7)/5)*30,30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13866,7 +15080,7 @@
       </c>
       <c r="B37" s="45">
         <f>IFERROR(MIN((COUNTIF(Log!G:G,"Interview Scheduled")/(COUNTA(Log!A:A)-1))*25,25),0)</f>
-        <v>4.1666666666666661</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13875,7 +15089,7 @@
       </c>
       <c r="B38" s="45">
         <f>IFERROR(MIN((COUNTIF(Log!G:G,"Offer")/(COUNTA(Log!A:A)-1))*15,15),0)</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13884,16 +15098,16 @@
       </c>
       <c r="B39" s="45">
         <f ca="1">ScoreA+ScoreB+ScoreC+ScoreD</f>
-        <v>14.166666666666666</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
@@ -13945,12 +15159,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
@@ -13993,12 +15207,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
     </row>
     <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
@@ -14028,12 +15242,12 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
     </row>
     <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
@@ -14060,12 +15274,12 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="52" t="s">
+      <c r="A66" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="52"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
     </row>
     <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="s">
@@ -14124,12 +15338,12 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="52" t="s">
+      <c r="A75" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
     </row>
     <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
@@ -14147,924 +15361,1820 @@
     </row>
     <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>5</v>
+        <v>445</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>264</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="52" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B78" s="50">
+        <v>46082</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79" s="50">
+        <v>46082</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-    </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="71" t="s">
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+    </row>
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71"/>
-    </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-    </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="71" t="s">
+      <c r="B84" s="49"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+    </row>
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="B83" s="71"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="71"/>
-    </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="71" t="s">
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+    </row>
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-    </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="71" t="s">
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+    </row>
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
-    </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="71" t="s">
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+    </row>
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-    </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="71" t="s">
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+    </row>
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="B87" s="71"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-    </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="71" t="s">
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+    </row>
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-    </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="71" t="s">
+      <c r="B90" s="49"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+    </row>
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="71"/>
-    </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="71" t="s">
+      <c r="B91" s="49"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+    </row>
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-    </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="71" t="s">
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+    </row>
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="B91" s="71"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-    </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="71" t="s">
+      <c r="B93" s="49"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
+    </row>
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-    </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="71" t="s">
+      <c r="B94" s="49"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+    </row>
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="71"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="71"/>
-    </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="71" t="s">
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
+    </row>
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
-    </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="71" t="s">
+      <c r="B96" s="49"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49"/>
+    </row>
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="B95" s="71"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="71"/>
-    </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="71" t="s">
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+    </row>
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="B96" s="71"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="71"/>
-    </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="71" t="s">
+      <c r="B98" s="49"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+    </row>
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="B97" s="71"/>
-      <c r="C97" s="71"/>
-      <c r="D97" s="71"/>
-    </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="71" t="s">
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+    </row>
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="B98" s="71"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
-    </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="71" t="s">
+      <c r="B100" s="49"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+    </row>
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="71"/>
-    </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="71"/>
-    </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="71" t="s">
+      <c r="B101" s="49"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
+    </row>
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="B101" s="71"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="71"/>
-    </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="71" t="s">
+      <c r="B102" s="49"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
+    </row>
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B102" s="71"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="71"/>
-    </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="71" t="s">
+      <c r="B103" s="49"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="49"/>
+    </row>
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="B103" s="71"/>
-      <c r="C103" s="71"/>
-      <c r="D103" s="71"/>
-    </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="71" t="s">
+      <c r="B104" s="49"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="49"/>
+    </row>
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="B104" s="71"/>
-      <c r="C104" s="71"/>
-      <c r="D104" s="71"/>
-    </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="71" t="s">
+      <c r="B105" s="49"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+    </row>
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="B105" s="71"/>
-      <c r="C105" s="71"/>
-      <c r="D105" s="71"/>
-    </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="71" t="s">
+      <c r="B106" s="49"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+    </row>
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="B106" s="71"/>
-      <c r="C106" s="71"/>
-      <c r="D106" s="71"/>
-    </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="71" t="s">
+      <c r="B107" s="49"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
+    </row>
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="B107" s="71"/>
-      <c r="C107" s="71"/>
-      <c r="D107" s="71"/>
-    </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="71" t="s">
+      <c r="B108" s="49"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
+    </row>
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B108" s="71"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="71"/>
-    </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="71" t="s">
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+    </row>
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="B109" s="71"/>
-      <c r="C109" s="71"/>
-      <c r="D109" s="71"/>
-    </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="71" t="s">
+      <c r="B110" s="49"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
+    </row>
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="B110" s="71"/>
-      <c r="C110" s="71"/>
-      <c r="D110" s="71"/>
-    </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="71" t="s">
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+    </row>
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="B111" s="71"/>
-      <c r="C111" s="71"/>
-      <c r="D111" s="71"/>
-    </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="71" t="s">
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+    </row>
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="B112" s="71"/>
-      <c r="C112" s="71"/>
-      <c r="D112" s="71"/>
-    </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="71" t="s">
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+    </row>
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="B113" s="71"/>
-      <c r="C113" s="71"/>
-      <c r="D113" s="71"/>
-    </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="71" t="s">
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+    </row>
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="B114" s="71"/>
-      <c r="C114" s="71"/>
-      <c r="D114" s="71"/>
-    </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="71" t="s">
+      <c r="B115" s="49"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
+    </row>
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="B115" s="71"/>
-      <c r="C115" s="71"/>
-      <c r="D115" s="71"/>
-    </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="71" t="s">
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+    </row>
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="B116" s="71"/>
-      <c r="C116" s="71"/>
-      <c r="D116" s="71"/>
-    </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="71" t="s">
+      <c r="B117" s="49"/>
+      <c r="C117" s="49"/>
+      <c r="D117" s="49"/>
+    </row>
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="B117" s="71"/>
-      <c r="C117" s="71"/>
-      <c r="D117" s="71"/>
-    </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="71" t="s">
+      <c r="B118" s="49"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
+    </row>
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="B118" s="71"/>
-      <c r="C118" s="71"/>
-      <c r="D118" s="71"/>
-    </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="71"/>
-      <c r="B119" s="71"/>
-      <c r="C119" s="71"/>
-      <c r="D119" s="71"/>
+      <c r="B119" s="49"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="49"/>
     </row>
     <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="71" t="s">
+      <c r="A120" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="B120" s="71"/>
-      <c r="C120" s="71"/>
-      <c r="D120" s="71"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49"/>
     </row>
     <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="71" t="s">
+      <c r="A121" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="B121" s="71"/>
-      <c r="C121" s="71"/>
-      <c r="D121" s="71"/>
+      <c r="B121" s="49"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="49"/>
     </row>
     <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="71" t="s">
+      <c r="A122" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="B122" s="71"/>
-      <c r="C122" s="71"/>
-      <c r="D122" s="71"/>
+      <c r="B122" s="49"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49"/>
     </row>
     <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="71" t="s">
+      <c r="A123" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="B123" s="71"/>
-      <c r="C123" s="71"/>
-      <c r="D123" s="71"/>
+      <c r="B123" s="49"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49"/>
     </row>
     <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="71" t="s">
+      <c r="A124" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="B124" s="71"/>
-      <c r="C124" s="71"/>
-      <c r="D124" s="71"/>
+      <c r="B124" s="49"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="49"/>
     </row>
     <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="71" t="s">
+      <c r="A125" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="B125" s="71"/>
-      <c r="C125" s="71"/>
-      <c r="D125" s="71"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="49"/>
     </row>
     <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="71" t="s">
+      <c r="A126" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="B126" s="71"/>
-      <c r="C126" s="71"/>
-      <c r="D126" s="71"/>
+      <c r="B126" s="49"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="49"/>
     </row>
     <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="71" t="s">
+      <c r="A127" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="B127" s="71"/>
-      <c r="C127" s="71"/>
-      <c r="D127" s="71"/>
+      <c r="B127" s="49"/>
+      <c r="C127" s="49"/>
+      <c r="D127" s="49"/>
     </row>
     <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="71" t="s">
+      <c r="A128" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="B128" s="71"/>
-      <c r="C128" s="71"/>
-      <c r="D128" s="71"/>
+      <c r="B128" s="49"/>
+      <c r="C128" s="49"/>
+      <c r="D128" s="49"/>
     </row>
     <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="71" t="s">
+      <c r="A129" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="B129" s="71"/>
-      <c r="C129" s="71"/>
-      <c r="D129" s="71"/>
+      <c r="B129" s="49"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="49"/>
     </row>
     <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="71" t="s">
+      <c r="A130" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="B130" s="71"/>
-      <c r="C130" s="71"/>
-      <c r="D130" s="71"/>
+      <c r="B130" s="49"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="49"/>
     </row>
     <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="71" t="s">
+      <c r="A131" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="B131" s="71"/>
-      <c r="C131" s="71"/>
-      <c r="D131" s="71"/>
+      <c r="B131" s="49"/>
+      <c r="C131" s="49"/>
+      <c r="D131" s="49"/>
     </row>
     <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="71" t="s">
+      <c r="A132" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="B132" s="71"/>
-      <c r="C132" s="71"/>
-      <c r="D132" s="71"/>
+      <c r="B132" s="49"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="49"/>
     </row>
     <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="71" t="s">
+      <c r="A133" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="B133" s="71"/>
-      <c r="C133" s="71"/>
-      <c r="D133" s="71"/>
+      <c r="B133" s="49"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="49"/>
     </row>
     <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="71" t="s">
+      <c r="A134" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="B134" s="71"/>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
+      <c r="B134" s="49"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="49"/>
     </row>
     <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="71" t="s">
+      <c r="A135" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="B135" s="71"/>
-      <c r="C135" s="71"/>
-      <c r="D135" s="71"/>
+      <c r="B135" s="49"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="49"/>
     </row>
     <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="71" t="s">
+      <c r="A136" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="B136" s="71"/>
-      <c r="C136" s="71"/>
-      <c r="D136" s="71"/>
+      <c r="B136" s="49"/>
+      <c r="C136" s="49"/>
+      <c r="D136" s="49"/>
     </row>
     <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="71" t="s">
+      <c r="A137" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="B137" s="71"/>
-      <c r="C137" s="71"/>
-      <c r="D137" s="71"/>
+      <c r="B137" s="49"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="49"/>
     </row>
     <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="71" t="s">
+      <c r="A138" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="B138" s="71"/>
-      <c r="C138" s="71"/>
-      <c r="D138" s="71"/>
+      <c r="B138" s="49"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="49"/>
     </row>
     <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="71" t="s">
+      <c r="A139" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="B139" s="71"/>
-      <c r="C139" s="71"/>
-      <c r="D139" s="71"/>
+      <c r="B139" s="49"/>
+      <c r="C139" s="49"/>
+      <c r="D139" s="49"/>
     </row>
     <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="71" t="s">
+      <c r="A140" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="B140" s="71"/>
-      <c r="C140" s="71"/>
-      <c r="D140" s="71"/>
+      <c r="B140" s="49"/>
+      <c r="C140" s="49"/>
+      <c r="D140" s="49"/>
     </row>
     <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="71" t="s">
+      <c r="A141" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="B141" s="71"/>
-      <c r="C141" s="71"/>
-      <c r="D141" s="71"/>
+      <c r="B141" s="49"/>
+      <c r="C141" s="49"/>
+      <c r="D141" s="49"/>
     </row>
     <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="71" t="s">
+      <c r="A142" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="B142" s="71"/>
-      <c r="C142" s="71"/>
-      <c r="D142" s="71"/>
+      <c r="B142" s="49"/>
+      <c r="C142" s="49"/>
+      <c r="D142" s="49"/>
     </row>
     <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="71" t="s">
+      <c r="A143" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="B143" s="71"/>
-      <c r="C143" s="71"/>
-      <c r="D143" s="71"/>
+      <c r="B143" s="49"/>
+      <c r="C143" s="49"/>
+      <c r="D143" s="49"/>
     </row>
     <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="71" t="s">
+      <c r="A144" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="B144" s="71"/>
-      <c r="C144" s="71"/>
-      <c r="D144" s="71"/>
+      <c r="B144" s="49"/>
+      <c r="C144" s="49"/>
+      <c r="D144" s="49"/>
     </row>
     <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="71" t="s">
+      <c r="A145" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="B145" s="71"/>
-      <c r="C145" s="71"/>
-      <c r="D145" s="71"/>
+      <c r="B145" s="49"/>
+      <c r="C145" s="49"/>
+      <c r="D145" s="49"/>
     </row>
     <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="71" t="s">
+      <c r="A146" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="B146" s="71"/>
-      <c r="C146" s="71"/>
-      <c r="D146" s="71"/>
+      <c r="B146" s="49"/>
+      <c r="C146" s="49"/>
+      <c r="D146" s="49"/>
     </row>
     <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="71"/>
-      <c r="B147" s="71"/>
-      <c r="C147" s="71"/>
-      <c r="D147" s="71"/>
+      <c r="A147" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="B147" s="49"/>
+      <c r="C147" s="49"/>
+      <c r="D147" s="49"/>
     </row>
     <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="71" t="s">
+      <c r="A148" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="B148" s="49"/>
+      <c r="C148" s="49"/>
+      <c r="D148" s="49"/>
+    </row>
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="B149" s="49"/>
+      <c r="C149" s="49"/>
+      <c r="D149" s="49"/>
+    </row>
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="B150" s="49"/>
+      <c r="C150" s="49"/>
+      <c r="D150" s="49"/>
+    </row>
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="B151" s="49"/>
+      <c r="C151" s="49"/>
+      <c r="D151" s="49"/>
+    </row>
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="B152" s="49"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
+    </row>
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="B148" s="71"/>
-      <c r="C148" s="71"/>
-      <c r="D148" s="71"/>
-    </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="B149" s="71"/>
-      <c r="C149" s="71"/>
-      <c r="D149" s="71"/>
-    </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="71" t="s">
+      <c r="B153" s="49"/>
+      <c r="C153" s="49"/>
+      <c r="D153" s="49"/>
+    </row>
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="B150" s="71"/>
-      <c r="C150" s="71"/>
-      <c r="D150" s="71"/>
-    </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="B151" s="71"/>
-      <c r="C151" s="71"/>
-      <c r="D151" s="71"/>
-    </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="71" t="s">
+      <c r="B154" s="49"/>
+      <c r="C154" s="49"/>
+      <c r="D154" s="49"/>
+    </row>
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="B155" s="49"/>
+      <c r="C155" s="49"/>
+      <c r="D155" s="49"/>
+    </row>
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="49"/>
+      <c r="C156" s="49"/>
+      <c r="D156" s="49"/>
+    </row>
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="B152" s="71"/>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
-    </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="71" t="s">
+      <c r="B157" s="49"/>
+      <c r="C157" s="49"/>
+      <c r="D157" s="49"/>
+    </row>
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="B153" s="71"/>
-      <c r="C153" s="71"/>
-      <c r="D153" s="71"/>
-    </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="71" t="s">
+      <c r="B158" s="49"/>
+      <c r="C158" s="49"/>
+      <c r="D158" s="49"/>
+    </row>
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="B159" s="49"/>
+      <c r="C159" s="49"/>
+      <c r="D159" s="49"/>
+    </row>
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="B154" s="71"/>
-      <c r="C154" s="71"/>
-      <c r="D154" s="71"/>
-    </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="71" t="s">
+      <c r="B160" s="49"/>
+      <c r="C160" s="49"/>
+      <c r="D160" s="49"/>
+    </row>
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="B155" s="71"/>
-      <c r="C155" s="71"/>
-      <c r="D155" s="71"/>
-    </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="B156" s="71"/>
-      <c r="C156" s="71"/>
-      <c r="D156" s="71"/>
-    </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="71" t="s">
+      <c r="B161" s="49"/>
+      <c r="C161" s="49"/>
+      <c r="D161" s="49"/>
+    </row>
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="B162" s="49"/>
+      <c r="C162" s="49"/>
+      <c r="D162" s="49"/>
+    </row>
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="B163" s="49"/>
+      <c r="C163" s="49"/>
+      <c r="D163" s="49"/>
+    </row>
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="B164" s="49"/>
+      <c r="C164" s="49"/>
+      <c r="D164" s="49"/>
+    </row>
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="49"/>
+      <c r="B165" s="49"/>
+      <c r="C165" s="49"/>
+      <c r="D165" s="49"/>
+    </row>
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="B157" s="71"/>
-      <c r="C157" s="71"/>
-      <c r="D157" s="71"/>
-    </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="71" t="s">
+      <c r="B166" s="49"/>
+      <c r="C166" s="49"/>
+      <c r="D166" s="49"/>
+    </row>
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="B158" s="71"/>
-      <c r="C158" s="71"/>
-      <c r="D158" s="71"/>
-    </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="71" t="s">
+      <c r="B167" s="49"/>
+      <c r="C167" s="49"/>
+      <c r="D167" s="49"/>
+    </row>
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="49"/>
+      <c r="B168" s="49"/>
+      <c r="C168" s="49"/>
+      <c r="D168" s="49"/>
+    </row>
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="B169" s="49"/>
+      <c r="C169" s="49"/>
+      <c r="D169" s="49"/>
+    </row>
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B170" s="49"/>
+      <c r="C170" s="49"/>
+      <c r="D170" s="49"/>
+    </row>
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="49"/>
+      <c r="B171" s="49"/>
+      <c r="C171" s="49"/>
+      <c r="D171" s="49"/>
+    </row>
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" s="49"/>
+      <c r="C172" s="49"/>
+      <c r="D172" s="49"/>
+    </row>
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173" s="49"/>
+      <c r="C173" s="49"/>
+      <c r="D173" s="49"/>
+    </row>
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="B159" s="71"/>
-      <c r="C159" s="71"/>
-      <c r="D159" s="71"/>
-    </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="71" t="s">
+      <c r="B174" s="49"/>
+      <c r="C174" s="49"/>
+      <c r="D174" s="49"/>
+    </row>
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" s="49"/>
+      <c r="C175" s="49"/>
+      <c r="D175" s="49"/>
+    </row>
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" s="49"/>
+      <c r="C176" s="49"/>
+      <c r="D176" s="49"/>
+    </row>
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="B160" s="71"/>
-      <c r="C160" s="71"/>
-      <c r="D160" s="71"/>
-    </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="71" t="s">
+      <c r="B177" s="49"/>
+      <c r="C177" s="49"/>
+      <c r="D177" s="49"/>
+    </row>
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="B161" s="71"/>
-      <c r="C161" s="71"/>
-      <c r="D161" s="71"/>
-    </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="71" t="s">
+      <c r="B178" s="49"/>
+      <c r="C178" s="49"/>
+      <c r="D178" s="49"/>
+    </row>
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="49"/>
+      <c r="B179" s="49"/>
+      <c r="C179" s="49"/>
+      <c r="D179" s="49"/>
+    </row>
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="B180" s="49"/>
+      <c r="C180" s="49"/>
+      <c r="D180" s="49"/>
+    </row>
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="B181" s="49"/>
+      <c r="C181" s="49"/>
+      <c r="D181" s="49"/>
+    </row>
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="B182" s="49"/>
+      <c r="C182" s="49"/>
+      <c r="D182" s="49"/>
+    </row>
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="B183" s="49"/>
+      <c r="C183" s="49"/>
+      <c r="D183" s="49"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="B184" s="49"/>
+      <c r="C184" s="49"/>
+      <c r="D184" s="49"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="B185" s="49"/>
+      <c r="C185" s="49"/>
+      <c r="D185" s="49"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="49"/>
+      <c r="B186" s="49"/>
+      <c r="C186" s="49"/>
+      <c r="D186" s="49"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="B187" s="49"/>
+      <c r="C187" s="49"/>
+      <c r="D187" s="49"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="B188" s="49"/>
+      <c r="C188" s="49"/>
+      <c r="D188" s="49"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="B189" s="49"/>
+      <c r="C189" s="49"/>
+      <c r="D189" s="49"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="B190" s="49"/>
+      <c r="C190" s="49"/>
+      <c r="D190" s="49"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="B191" s="49"/>
+      <c r="C191" s="49"/>
+      <c r="D191" s="49"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="B192" s="49"/>
+      <c r="C192" s="49"/>
+      <c r="D192" s="49"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="B193" s="49"/>
+      <c r="C193" s="49"/>
+      <c r="D193" s="49"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="B194" s="49"/>
+      <c r="C194" s="49"/>
+      <c r="D194" s="49"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="B195" s="49"/>
+      <c r="C195" s="49"/>
+      <c r="D195" s="49"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="B196" s="49"/>
+      <c r="C196" s="49"/>
+      <c r="D196" s="49"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="B197" s="49"/>
+      <c r="C197" s="49"/>
+      <c r="D197" s="49"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B198" s="49"/>
+      <c r="C198" s="49"/>
+      <c r="D198" s="49"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="B199" s="49"/>
+      <c r="C199" s="49"/>
+      <c r="D199" s="49"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="49"/>
+      <c r="B200" s="49"/>
+      <c r="C200" s="49"/>
+      <c r="D200" s="49"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B201" s="49"/>
+      <c r="C201" s="49"/>
+      <c r="D201" s="49"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="B202" s="49"/>
+      <c r="C202" s="49"/>
+      <c r="D202" s="49"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B203" s="49"/>
+      <c r="C203" s="49"/>
+      <c r="D203" s="49"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="49"/>
+      <c r="B204" s="49"/>
+      <c r="C204" s="49"/>
+      <c r="D204" s="49"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="B205" s="49"/>
+      <c r="C205" s="49"/>
+      <c r="D205" s="49"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="B162" s="71"/>
-      <c r="C162" s="71"/>
-      <c r="D162" s="71"/>
-    </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="71" t="s">
+      <c r="B206" s="49"/>
+      <c r="C206" s="49"/>
+      <c r="D206" s="49"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="B207" s="49"/>
+      <c r="C207" s="49"/>
+      <c r="D207" s="49"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="B163" s="71"/>
-      <c r="C163" s="71"/>
-      <c r="D163" s="71"/>
-    </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="71" t="s">
+      <c r="B208" s="49"/>
+      <c r="C208" s="49"/>
+      <c r="D208" s="49"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="B209" s="49"/>
+      <c r="C209" s="49"/>
+      <c r="D209" s="49"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="B210" s="49"/>
+      <c r="C210" s="49"/>
+      <c r="D210" s="49"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="49"/>
+      <c r="B211" s="49"/>
+      <c r="C211" s="49"/>
+      <c r="D211" s="49"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="B212" s="49"/>
+      <c r="C212" s="49"/>
+      <c r="D212" s="49"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="B213" s="49"/>
+      <c r="C213" s="49"/>
+      <c r="D213" s="49"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="B214" s="49"/>
+      <c r="C214" s="49"/>
+      <c r="D214" s="49"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="B215" s="49"/>
+      <c r="C215" s="49"/>
+      <c r="D215" s="49"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="B216" s="49"/>
+      <c r="C216" s="49"/>
+      <c r="D216" s="49"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="B217" s="49"/>
+      <c r="C217" s="49"/>
+      <c r="D217" s="49"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="B218" s="49"/>
+      <c r="C218" s="49"/>
+      <c r="D218" s="49"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="B219" s="49"/>
+      <c r="C219" s="49"/>
+      <c r="D219" s="49"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="B220" s="49"/>
+      <c r="C220" s="49"/>
+      <c r="D220" s="49"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="B221" s="49"/>
+      <c r="C221" s="49"/>
+      <c r="D221" s="49"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="49" t="s">
+        <v>383</v>
+      </c>
+      <c r="B222" s="49"/>
+      <c r="C222" s="49"/>
+      <c r="D222" s="49"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="B223" s="49"/>
+      <c r="C223" s="49"/>
+      <c r="D223" s="49"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="B224" s="49"/>
+      <c r="C224" s="49"/>
+      <c r="D224" s="49"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="B225" s="49"/>
+      <c r="C225" s="49"/>
+      <c r="D225" s="49"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="B226" s="49"/>
+      <c r="C226" s="49"/>
+      <c r="D226" s="49"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="B227" s="49"/>
+      <c r="C227" s="49"/>
+      <c r="D227" s="49"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="B228" s="49"/>
+      <c r="C228" s="49"/>
+      <c r="D228" s="49"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="B229" s="49"/>
+      <c r="C229" s="49"/>
+      <c r="D229" s="49"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="B230" s="49"/>
+      <c r="C230" s="49"/>
+      <c r="D230" s="49"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="B231" s="49"/>
+      <c r="C231" s="49"/>
+      <c r="D231" s="49"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="B232" s="49"/>
+      <c r="C232" s="49"/>
+      <c r="D232" s="49"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="B233" s="49"/>
+      <c r="C233" s="49"/>
+      <c r="D233" s="49"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="B234" s="49"/>
+      <c r="C234" s="49"/>
+      <c r="D234" s="49"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="B235" s="49"/>
+      <c r="C235" s="49"/>
+      <c r="D235" s="49"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="B236" s="49"/>
+      <c r="C236" s="49"/>
+      <c r="D236" s="49"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="B237" s="49"/>
+      <c r="C237" s="49"/>
+      <c r="D237" s="49"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="B238" s="49"/>
+      <c r="C238" s="49"/>
+      <c r="D238" s="49"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="49"/>
+      <c r="B239" s="49"/>
+      <c r="C239" s="49"/>
+      <c r="D239" s="49"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="B164" s="71"/>
-      <c r="C164" s="71"/>
-      <c r="D164" s="71"/>
-    </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="71" t="s">
+      <c r="B240" s="49"/>
+      <c r="C240" s="49"/>
+      <c r="D240" s="49"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="B241" s="49"/>
+      <c r="C241" s="49"/>
+      <c r="D241" s="49"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="B242" s="49"/>
+      <c r="C242" s="49"/>
+      <c r="D242" s="49"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="B165" s="71"/>
-      <c r="C165" s="71"/>
-      <c r="D165" s="71"/>
-    </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="71" t="s">
-        <v>329</v>
-      </c>
-      <c r="B166" s="71"/>
-      <c r="C166" s="71"/>
-      <c r="D166" s="71"/>
-    </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="B167" s="71"/>
-      <c r="C167" s="71"/>
-      <c r="D167" s="71"/>
-    </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="71" t="s">
-        <v>331</v>
-      </c>
-      <c r="B168" s="71"/>
-      <c r="C168" s="71"/>
-      <c r="D168" s="71"/>
-    </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="71" t="s">
-        <v>332</v>
-      </c>
-      <c r="B169" s="71"/>
-      <c r="C169" s="71"/>
-      <c r="D169" s="71"/>
-    </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="B170" s="71"/>
-      <c r="C170" s="71"/>
-      <c r="D170" s="71"/>
-    </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="71" t="s">
-        <v>334</v>
-      </c>
-      <c r="B171" s="71"/>
-      <c r="C171" s="71"/>
-      <c r="D171" s="71"/>
-    </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="71" t="s">
-        <v>335</v>
-      </c>
-      <c r="B172" s="71"/>
-      <c r="C172" s="71"/>
-      <c r="D172" s="71"/>
-    </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="71" t="s">
-        <v>336</v>
-      </c>
-      <c r="B173" s="71"/>
-      <c r="C173" s="71"/>
-      <c r="D173" s="71"/>
-    </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="71" t="s">
-        <v>337</v>
-      </c>
-      <c r="B174" s="71"/>
-      <c r="C174" s="71"/>
-      <c r="D174" s="71"/>
-    </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="71" t="s">
-        <v>338</v>
-      </c>
-      <c r="B175" s="71"/>
-      <c r="C175" s="71"/>
-      <c r="D175" s="71"/>
-    </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="71" t="s">
-        <v>339</v>
-      </c>
-      <c r="B176" s="71"/>
-      <c r="C176" s="71"/>
-      <c r="D176" s="71"/>
-    </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="B177" s="71"/>
-      <c r="C177" s="71"/>
-      <c r="D177" s="71"/>
-    </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="71" t="s">
-        <v>340</v>
-      </c>
-      <c r="B178" s="71"/>
-      <c r="C178" s="71"/>
-      <c r="D178" s="71"/>
-    </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="71" t="s">
-        <v>341</v>
-      </c>
-      <c r="B179" s="71"/>
-      <c r="C179" s="71"/>
-      <c r="D179" s="71"/>
-    </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="71" t="s">
+      <c r="B243" s="49"/>
+      <c r="C243" s="49"/>
+      <c r="D243" s="49"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="49"/>
+      <c r="B244" s="49"/>
+      <c r="C244" s="49"/>
+      <c r="D244" s="49"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="B245" s="49"/>
+      <c r="C245" s="49"/>
+      <c r="D245" s="49"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="B246" s="49"/>
+      <c r="C246" s="49"/>
+      <c r="D246" s="49"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="B247" s="49"/>
+      <c r="C247" s="49"/>
+      <c r="D247" s="49"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="B248" s="49"/>
+      <c r="C248" s="49"/>
+      <c r="D248" s="49"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="B249" s="49"/>
+      <c r="C249" s="49"/>
+      <c r="D249" s="49"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B250" s="49"/>
+      <c r="C250" s="49"/>
+      <c r="D250" s="49"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="B251" s="49"/>
+      <c r="C251" s="49"/>
+      <c r="D251" s="49"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="B252" s="49"/>
+      <c r="C252" s="49"/>
+      <c r="D252" s="49"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B253" s="49"/>
+      <c r="C253" s="49"/>
+      <c r="D253" s="49"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="B254" s="49"/>
+      <c r="C254" s="49"/>
+      <c r="D254" s="49"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="49"/>
+      <c r="B255" s="49"/>
+      <c r="C255" s="49"/>
+      <c r="D255" s="49"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="B256" s="49"/>
+      <c r="C256" s="49"/>
+      <c r="D256" s="49"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="B257" s="49"/>
+      <c r="C257" s="49"/>
+      <c r="D257" s="49"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="B258" s="49"/>
+      <c r="C258" s="49"/>
+      <c r="D258" s="49"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="B259" s="49"/>
+      <c r="C259" s="49"/>
+      <c r="D259" s="49"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="B260" s="49"/>
+      <c r="C260" s="49"/>
+      <c r="D260" s="49"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="B261" s="49"/>
+      <c r="C261" s="49"/>
+      <c r="D261" s="49"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="B262" s="49"/>
+      <c r="C262" s="49"/>
+      <c r="D262" s="49"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="B263" s="49"/>
+      <c r="C263" s="49"/>
+      <c r="D263" s="49"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="B264" s="49"/>
+      <c r="C264" s="49"/>
+      <c r="D264" s="49"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="B265" s="49"/>
+      <c r="C265" s="49"/>
+      <c r="D265" s="49"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="49"/>
+      <c r="B266" s="49"/>
+      <c r="C266" s="49"/>
+      <c r="D266" s="49"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="B267" s="49"/>
+      <c r="C267" s="49"/>
+      <c r="D267" s="49"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="B268" s="49"/>
+      <c r="C268" s="49"/>
+      <c r="D268" s="49"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="B269" s="49"/>
+      <c r="C269" s="49"/>
+      <c r="D269" s="49"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="B270" s="49"/>
+      <c r="C270" s="49"/>
+      <c r="D270" s="49"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="B271" s="49"/>
+      <c r="C271" s="49"/>
+      <c r="D271" s="49"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="B272" s="49"/>
+      <c r="C272" s="49"/>
+      <c r="D272" s="49"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="B273" s="49"/>
+      <c r="C273" s="49"/>
+      <c r="D273" s="49"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="B274" s="49"/>
+      <c r="C274" s="49"/>
+      <c r="D274" s="49"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="B275" s="49"/>
+      <c r="C275" s="49"/>
+      <c r="D275" s="49"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="B276" s="49"/>
+      <c r="C276" s="49"/>
+      <c r="D276" s="49"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="49"/>
+      <c r="B277" s="49"/>
+      <c r="C277" s="49"/>
+      <c r="D277" s="49"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="B278" s="49"/>
+      <c r="C278" s="49"/>
+      <c r="D278" s="49"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="B279" s="49"/>
+      <c r="C279" s="49"/>
+      <c r="D279" s="49"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="B280" s="49"/>
+      <c r="C280" s="49"/>
+      <c r="D280" s="49"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="B281" s="49"/>
+      <c r="C281" s="49"/>
+      <c r="D281" s="49"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="B282" s="49"/>
+      <c r="C282" s="49"/>
+      <c r="D282" s="49"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="B283" s="49"/>
+      <c r="C283" s="49"/>
+      <c r="D283" s="49"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="B284" s="49"/>
+      <c r="C284" s="49"/>
+      <c r="D284" s="49"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="49"/>
+      <c r="B285" s="49"/>
+      <c r="C285" s="49"/>
+      <c r="D285" s="49"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="B286" s="49"/>
+      <c r="C286" s="49"/>
+      <c r="D286" s="49"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="B287" s="49"/>
+      <c r="C287" s="49"/>
+      <c r="D287" s="49"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="B288" s="49"/>
+      <c r="C288" s="49"/>
+      <c r="D288" s="49"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="B289" s="49"/>
+      <c r="C289" s="49"/>
+      <c r="D289" s="49"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="B290" s="49"/>
+      <c r="C290" s="49"/>
+      <c r="D290" s="49"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="49"/>
+      <c r="B291" s="49"/>
+      <c r="C291" s="49"/>
+      <c r="D291" s="49"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="B292" s="49"/>
+      <c r="C292" s="49"/>
+      <c r="D292" s="49"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="B293" s="49"/>
+      <c r="C293" s="49"/>
+      <c r="D293" s="49"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="B294" s="49"/>
+      <c r="C294" s="49"/>
+      <c r="D294" s="49"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="B295" s="49"/>
+      <c r="C295" s="49"/>
+      <c r="D295" s="49"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="B296" s="49"/>
+      <c r="C296" s="49"/>
+      <c r="D296" s="49"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="49"/>
+      <c r="B297" s="49"/>
+      <c r="C297" s="49"/>
+      <c r="D297" s="49"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="B298" s="49"/>
+      <c r="C298" s="49"/>
+      <c r="D298" s="49"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="B299" s="49"/>
+      <c r="C299" s="49"/>
+      <c r="D299" s="49"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="B300" s="49"/>
+      <c r="C300" s="49"/>
+      <c r="D300" s="49"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="B301" s="49"/>
+      <c r="C301" s="49"/>
+      <c r="D301" s="49"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="49"/>
+      <c r="B302" s="49"/>
+      <c r="C302" s="49"/>
+      <c r="D302" s="49"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="B303" s="49"/>
+      <c r="C303" s="49"/>
+      <c r="D303" s="49"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="B304" s="49"/>
+      <c r="C304" s="49"/>
+      <c r="D304" s="49"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="B180" s="71"/>
-      <c r="C180" s="71"/>
-      <c r="D180" s="71"/>
+      <c r="B305" s="49"/>
+      <c r="C305" s="49"/>
+      <c r="D305" s="49"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="49"/>
+      <c r="B306" s="49"/>
+      <c r="C306" s="49"/>
+      <c r="D306" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
+  <mergeCells count="13">
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A8:D8"/>
